--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C506"/>
+  <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9004,12 +9004,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MAERSK-B.CO</t>
+          <t>MAERSK-A.CO</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>A.P. Møller - Mærsk A/S (B)</t>
+          <t>A.P. Møller-Mærsk (class A)</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9021,15 +9021,406 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MAERSK-A.CO</t>
+          <t>MAERSK-B.CO</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>A.P. Møller - Mærsk A/S (A)</t>
+          <t>A.P. Møller-Mærsk (class B)</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>AMBU-B.CO</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Ambu</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>BAVA.CO</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Bavarian Nordic</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>CARL-B.CO</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Carlsberg Group</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>COLO-B.CO</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Coloplast</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>DANSKE.CO</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Danske Bank</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>DEMANT.CO</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Demant</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>DSV.CO</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>DSV</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>GMAB.CO</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Genmab</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>GN.CO</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>GN Store Nord</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>ISS.CO</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ISS</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>JYSK.CO</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Jyske Bank</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>NKT.CO</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>NKT</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>NDA.CO</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Nordea Bank Abp</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>NSIS-B.CO</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Novonesis</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>NOVO-B.CO</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Novo Nordisk</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>PNDORA.CO</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>ROCK-B.CO</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Rockwool International</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>RBREW.CO</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Royal Unibrew</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>TRMD-A.CO</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>TORM</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>TRYG.CO</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Tryg</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>VWS.CO</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Vestas Wind Systems</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>ZEAL.CO</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Zealand Pharma</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>ORSTED.CO</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Ørsted</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
         <is>
           <t>C25</t>
         </is>
